--- a/PRO1/step_3/time_series_example/res_line/loading_percent.xlsx
+++ b/PRO1/step_3/time_series_example/res_line/loading_percent.xlsx
@@ -424,49 +424,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.46124343217372</v>
+        <v>24.48576012533917</v>
       </c>
       <c r="C2">
-        <v>33.5257031102883</v>
+        <v>24.78072234210109</v>
       </c>
       <c r="D2">
-        <v>13.42371053177895</v>
+        <v>9.687137287120599</v>
       </c>
       <c r="E2">
-        <v>10.02722078309339</v>
+        <v>7.2450687487547</v>
       </c>
       <c r="F2">
-        <v>4.437267612902121</v>
+        <v>3.136410472191041</v>
       </c>
       <c r="G2">
-        <v>0.6281132818938523</v>
+        <v>0.5662992095913908</v>
       </c>
       <c r="H2">
-        <v>11.49460814770435</v>
+        <v>8.57560507043071</v>
       </c>
       <c r="I2">
-        <v>6.977563200345487</v>
+        <v>5.027212475786734</v>
       </c>
       <c r="J2">
-        <v>2.598214618726241</v>
+        <v>1.897678915055619</v>
       </c>
       <c r="K2">
-        <v>16.45517101911757</v>
+        <v>12.25664952806051</v>
       </c>
       <c r="L2">
-        <v>3.346511168026843</v>
+        <v>2.600364641085597</v>
       </c>
       <c r="M2">
-        <v>3.175699119956327</v>
+        <v>2.438592158907982</v>
       </c>
       <c r="N2">
-        <v>0.08805418639741894</v>
+        <v>0.09146606579083116</v>
       </c>
       <c r="O2">
-        <v>0.179565817273806</v>
+        <v>0.1865965556007279</v>
       </c>
       <c r="P2">
-        <v>0.03751812229026775</v>
+        <v>0.03834304220548546</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,49 +474,49 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31.04974473414273</v>
+        <v>23.52857597584469</v>
       </c>
       <c r="C3">
-        <v>32.11160654285921</v>
+        <v>23.81293406986932</v>
       </c>
       <c r="D3">
-        <v>12.86522468378315</v>
+        <v>9.312047742562088</v>
       </c>
       <c r="E3">
-        <v>9.609748274698488</v>
+        <v>6.96480603531666</v>
       </c>
       <c r="F3">
-        <v>4.257872859669157</v>
+        <v>3.015470285619574</v>
       </c>
       <c r="G3">
-        <v>0.6030816681000013</v>
+        <v>0.5613406735003901</v>
       </c>
       <c r="H3">
-        <v>11.01981299177607</v>
+        <v>8.240434891138197</v>
       </c>
       <c r="I3">
-        <v>6.690953854908748</v>
+        <v>4.83315690474414</v>
       </c>
       <c r="J3">
-        <v>2.489946592424973</v>
+        <v>1.825145953421879</v>
       </c>
       <c r="K3">
-        <v>15.76300533556125</v>
+        <v>11.77595287797225</v>
       </c>
       <c r="L3">
-        <v>3.215482359114701</v>
+        <v>2.501835106520398</v>
       </c>
       <c r="M3">
-        <v>3.052421128867921</v>
+        <v>2.346137943356943</v>
       </c>
       <c r="N3">
-        <v>0.08828576369250875</v>
+        <v>0.09156086611024822</v>
       </c>
       <c r="O3">
-        <v>0.180047814616886</v>
+        <v>0.186796427714701</v>
       </c>
       <c r="P3">
-        <v>0.03756391889590414</v>
+        <v>0.0383568560099322</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,49 +524,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.59948373131211</v>
+        <v>22.54278508887857</v>
       </c>
       <c r="C4">
-        <v>30.65816348466636</v>
+        <v>22.81523400047726</v>
       </c>
       <c r="D4">
-        <v>12.29111861635923</v>
+        <v>8.925252766392633</v>
       </c>
       <c r="E4">
-        <v>9.180611649364485</v>
+        <v>6.675804602338959</v>
       </c>
       <c r="F4">
-        <v>4.073452951778663</v>
+        <v>2.890716348124958</v>
       </c>
       <c r="G4">
-        <v>0.5773492206443265</v>
+        <v>0.5569048884644643</v>
       </c>
       <c r="H4">
-        <v>10.53179098445196</v>
+        <v>7.894776316005155</v>
       </c>
       <c r="I4">
-        <v>6.396361817545775</v>
+        <v>4.633024068532634</v>
       </c>
       <c r="J4">
-        <v>2.378674648153678</v>
+        <v>1.75036301078187</v>
       </c>
       <c r="K4">
-        <v>15.05161925784138</v>
+        <v>11.28037092695583</v>
       </c>
       <c r="L4">
-        <v>3.080370292978335</v>
+        <v>2.400054767020552</v>
       </c>
       <c r="M4">
-        <v>2.925299422947762</v>
+        <v>2.25062868444357</v>
       </c>
       <c r="N4">
-        <v>0.0885239519804578</v>
+        <v>0.09165851628790718</v>
       </c>
       <c r="O4">
-        <v>0.180543564271477</v>
+        <v>0.1870023166733966</v>
       </c>
       <c r="P4">
-        <v>0.0376111103892619</v>
+        <v>0.03837108787214492</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,49 +574,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>29.59222375430434</v>
+        <v>22.53784453549898</v>
       </c>
       <c r="C5">
-        <v>30.650886140543</v>
+        <v>22.8102310048825</v>
       </c>
       <c r="D5">
-        <v>12.28824386632406</v>
+        <v>8.923312860239838</v>
       </c>
       <c r="E5">
-        <v>9.178462843543324</v>
+        <v>6.674355183402659</v>
       </c>
       <c r="F5">
-        <v>4.07252947243362</v>
+        <v>2.89009055459735</v>
       </c>
       <c r="G5">
-        <v>0.5772203666901142</v>
+        <v>0.5568844041397436</v>
       </c>
       <c r="H5">
-        <v>10.52934741634821</v>
+        <v>7.89304263666611</v>
       </c>
       <c r="I5">
-        <v>6.394886772866447</v>
+        <v>4.632020271393116</v>
       </c>
       <c r="J5">
-        <v>2.378117533297063</v>
+        <v>1.749987985039948</v>
       </c>
       <c r="K5">
-        <v>15.04805746401063</v>
+        <v>11.27788573248267</v>
       </c>
       <c r="L5">
-        <v>3.079692669772812</v>
+        <v>2.399543850138719</v>
       </c>
       <c r="M5">
-        <v>2.924661867855259</v>
+        <v>2.250149234038202</v>
       </c>
       <c r="N5">
-        <v>0.08852514502483666</v>
+        <v>0.09165900579401859</v>
       </c>
       <c r="O5">
-        <v>0.1805460473721099</v>
+        <v>0.1870033487192937</v>
       </c>
       <c r="P5">
-        <v>0.03761134698521643</v>
+        <v>0.03837115921727481</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,49 +624,49 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.66516064952732</v>
+        <v>21.90652351608955</v>
       </c>
       <c r="C6">
-        <v>29.72147726970427</v>
+        <v>22.17068806163401</v>
       </c>
       <c r="D6">
-        <v>11.92108297540071</v>
+        <v>8.675303654415536</v>
       </c>
       <c r="E6">
-        <v>8.904021589902779</v>
+        <v>6.489054523824048</v>
       </c>
       <c r="F6">
-        <v>3.954581028589842</v>
+        <v>2.810075524992889</v>
       </c>
       <c r="G6">
-        <v>0.5607629684553725</v>
+        <v>0.5544123281578567</v>
       </c>
       <c r="H6">
-        <v>10.2172667394102</v>
+        <v>7.671390493122051</v>
       </c>
       <c r="I6">
-        <v>6.206501341601987</v>
+        <v>4.503682902365975</v>
       </c>
       <c r="J6">
-        <v>2.306968400421497</v>
+        <v>1.702045505920177</v>
       </c>
       <c r="K6">
-        <v>14.59317843270796</v>
+        <v>10.96019071851145</v>
       </c>
       <c r="L6">
-        <v>2.993060093027226</v>
+        <v>2.334186763854504</v>
       </c>
       <c r="M6">
-        <v>2.84315139470786</v>
+        <v>2.188816216713218</v>
       </c>
       <c r="N6">
-        <v>0.0886775475317364</v>
+        <v>0.09172156184848791</v>
       </c>
       <c r="O6">
-        <v>0.1808632440646072</v>
+        <v>0.1871352485368166</v>
       </c>
       <c r="P6">
-        <v>0.03764158842253622</v>
+        <v>0.0383802777630298</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,49 +674,49 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>29.38842814658523</v>
+        <v>22.39913682102967</v>
       </c>
       <c r="C7">
-        <v>30.4465967981696</v>
+        <v>22.66975852069687</v>
       </c>
       <c r="D7">
-        <v>12.20754306021459</v>
+        <v>8.868843516839943</v>
       </c>
       <c r="E7">
-        <v>9.118141077274402</v>
+        <v>6.633657993206294</v>
       </c>
       <c r="F7">
-        <v>4.046605183364327</v>
+        <v>2.872518835263026</v>
       </c>
       <c r="G7">
-        <v>0.5736031289632653</v>
+        <v>0.5563164886359078</v>
       </c>
       <c r="H7">
-        <v>10.46075136260121</v>
+        <v>7.844363394002028</v>
       </c>
       <c r="I7">
-        <v>6.353479198823218</v>
+        <v>4.603835034769032</v>
       </c>
       <c r="J7">
-        <v>2.362478295955877</v>
+        <v>1.739458038162613</v>
       </c>
       <c r="K7">
-        <v>14.94807125386339</v>
+        <v>11.20810690666979</v>
       </c>
       <c r="L7">
-        <v>3.060665973955745</v>
+        <v>2.385196197865703</v>
       </c>
       <c r="M7">
-        <v>2.90676020280501</v>
+        <v>2.236685172582452</v>
       </c>
       <c r="N7">
-        <v>0.0885586377510551</v>
+        <v>0.09167274841122455</v>
       </c>
       <c r="O7">
-        <v>0.1806157563322524</v>
+        <v>0.1870323248444312</v>
       </c>
       <c r="P7">
-        <v>0.03761798991752991</v>
+        <v>0.03837316233337244</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,49 +724,49 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.139220886721</v>
+        <v>23.5893203999918</v>
       </c>
       <c r="C8">
-        <v>32.20126124488384</v>
+        <v>23.87437824527721</v>
       </c>
       <c r="D8">
-        <v>12.90063529572354</v>
+        <v>9.335864966610671</v>
       </c>
       <c r="E8">
-        <v>9.636217639387567</v>
+        <v>6.982601792622686</v>
       </c>
       <c r="F8">
-        <v>4.269247516851038</v>
+        <v>3.023150746085245</v>
       </c>
       <c r="G8">
-        <v>0.6046688058769287</v>
+        <v>0.5616364720117483</v>
       </c>
       <c r="H8">
-        <v>11.04991568856648</v>
+        <v>8.261718078931349</v>
       </c>
       <c r="I8">
-        <v>6.7091252445885</v>
+        <v>4.845479489794153</v>
       </c>
       <c r="J8">
-        <v>2.496810605196696</v>
+        <v>1.829751232182855</v>
       </c>
       <c r="K8">
-        <v>15.80688798184209</v>
+        <v>11.80647269559893</v>
       </c>
       <c r="L8">
-        <v>3.223802127120259</v>
+        <v>2.508096438543264</v>
       </c>
       <c r="M8">
-        <v>3.060248806521535</v>
+        <v>2.352013328964092</v>
       </c>
       <c r="N8">
-        <v>0.08827107682214358</v>
+        <v>0.09155484965726923</v>
       </c>
       <c r="O8">
-        <v>0.1800172460654277</v>
+        <v>0.1867837426997206</v>
       </c>
       <c r="P8">
-        <v>0.03756101192508636</v>
+        <v>0.03835597924235047</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,49 +774,49 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.01584080028124</v>
+        <v>27.01690897002616</v>
       </c>
       <c r="C9">
-        <v>37.08506167710227</v>
+        <v>27.33362671333085</v>
       </c>
       <c r="D9">
-        <v>14.82914775990241</v>
+        <v>10.62650264059316</v>
       </c>
       <c r="E9">
-        <v>11.07784614245799</v>
+        <v>7.946979997491849</v>
       </c>
       <c r="F9">
-        <v>4.888699054572768</v>
+        <v>3.439152720034235</v>
       </c>
       <c r="G9">
-        <v>0.6911048711971814</v>
+        <v>0.581412974856705</v>
       </c>
       <c r="H9">
-        <v>12.68967907745024</v>
+        <v>9.53896371302937</v>
       </c>
       <c r="I9">
-        <v>7.698977284273353</v>
+        <v>5.641173651600936</v>
       </c>
       <c r="J9">
-        <v>2.870773306527492</v>
+        <v>2.208847987289985</v>
       </c>
       <c r="K9">
-        <v>18.19757252698603</v>
+        <v>13.58759942911909</v>
       </c>
       <c r="L9">
-        <v>3.674466180548257</v>
+        <v>2.846216611690445</v>
       </c>
       <c r="M9">
-        <v>3.484247848929775</v>
+        <v>2.669268756199922</v>
       </c>
       <c r="N9">
-        <v>0.08747198299386091</v>
+        <v>0.09122238250945747</v>
       </c>
       <c r="O9">
-        <v>0.1783540055582246</v>
+        <v>0.1860790347011429</v>
       </c>
       <c r="P9">
-        <v>0.03740336147328743</v>
+        <v>0.03830841685635671</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,49 +824,49 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>53.65837263563047</v>
+        <v>38.53096686641938</v>
       </c>
       <c r="C10">
-        <v>54.72973916054297</v>
+        <v>38.91890742704108</v>
       </c>
       <c r="D10">
-        <v>21.79149411917802</v>
+        <v>15.1590965159419</v>
       </c>
       <c r="E10">
-        <v>16.28352208286324</v>
+        <v>11.334275312658</v>
       </c>
       <c r="F10">
-        <v>7.125288344880137</v>
+        <v>4.898382697015264</v>
       </c>
       <c r="G10">
-        <v>1.003239434720809</v>
+        <v>0.7839757629513192</v>
       </c>
       <c r="H10">
-        <v>18.61594780291382</v>
+        <v>13.46478864277096</v>
       </c>
       <c r="I10">
-        <v>11.2768496374541</v>
+        <v>7.857740596608449</v>
       </c>
       <c r="J10">
-        <v>4.223069469068991</v>
+        <v>2.957051428503974</v>
       </c>
       <c r="K10">
-        <v>26.83982040822021</v>
+        <v>19.27831436706797</v>
       </c>
       <c r="L10">
-        <v>5.260892390221637</v>
+        <v>4.019871842103815</v>
       </c>
       <c r="M10">
-        <v>4.97673921019583</v>
+        <v>3.770292059980845</v>
       </c>
       <c r="N10">
-        <v>0.08459982107511692</v>
+        <v>0.09006995876286457</v>
       </c>
       <c r="O10">
-        <v>0.1723750760798754</v>
+        <v>0.18365394975645</v>
       </c>
       <c r="P10">
-        <v>0.03684548694710728</v>
+        <v>0.03814001754337589</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,49 +874,49 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70.23901897936022</v>
+        <v>49.2861187064507</v>
       </c>
       <c r="C11">
-        <v>71.2977223856673</v>
+        <v>49.70532996351321</v>
       </c>
       <c r="D11">
-        <v>28.32340432775935</v>
+        <v>19.35987043192898</v>
       </c>
       <c r="E11">
-        <v>21.16892243893352</v>
+        <v>14.50731841694111</v>
       </c>
       <c r="F11">
-        <v>9.22479551008081</v>
+        <v>6.207657807348147</v>
       </c>
       <c r="G11">
-        <v>1.296330920251658</v>
+        <v>0.9927456601639082</v>
       </c>
       <c r="H11">
-        <v>24.1865212884978</v>
+        <v>17.10274544922574</v>
       </c>
       <c r="I11">
-        <v>14.64089786841951</v>
+        <v>9.963925148956196</v>
       </c>
       <c r="J11">
-        <v>5.494978238978327</v>
+        <v>3.746164385847554</v>
       </c>
       <c r="K11">
-        <v>34.96315978354711</v>
+        <v>24.50820118790094</v>
       </c>
       <c r="L11">
-        <v>6.689214451356714</v>
+        <v>5.053880242044254</v>
       </c>
       <c r="M11">
-        <v>6.320484650931145</v>
+        <v>4.740197588638747</v>
       </c>
       <c r="N11">
-        <v>0.08192487626160941</v>
+        <v>0.08900184958043625</v>
       </c>
       <c r="O11">
-        <v>0.1668054230054138</v>
+        <v>0.1814063738286853</v>
       </c>
       <c r="P11">
-        <v>0.03633935244704478</v>
+        <v>0.03798739354246579</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,49 +924,49 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>99.69867610509408</v>
+        <v>66.57533275284801</v>
       </c>
       <c r="C12">
-        <v>100.72294992997</v>
+        <v>67.02626847023947</v>
       </c>
       <c r="D12">
-        <v>39.91218085383097</v>
+        <v>25.96728600703712</v>
       </c>
       <c r="E12">
-        <v>29.84053965132243</v>
+        <v>19.41376439427035</v>
       </c>
       <c r="F12">
-        <v>12.95400178831949</v>
+        <v>8.375511230969646</v>
       </c>
       <c r="G12">
-        <v>1.817187621447028</v>
+        <v>1.338573860745795</v>
       </c>
       <c r="H12">
-        <v>34.09985301374933</v>
+        <v>23.13399044938361</v>
       </c>
       <c r="I12">
-        <v>20.63031996640778</v>
+        <v>13.45611410880581</v>
       </c>
       <c r="J12">
-        <v>7.760046718751807</v>
+        <v>5.055194468892326</v>
       </c>
       <c r="K12">
-        <v>49.41438522471619</v>
+        <v>33.18114801160135</v>
       </c>
       <c r="L12">
-        <v>9.070031385806846</v>
+        <v>6.727949791518078</v>
       </c>
       <c r="M12">
-        <v>8.56042568281822</v>
+        <v>6.310434571151927</v>
       </c>
       <c r="N12">
-        <v>0.07723471210496401</v>
+        <v>0.08722994429941214</v>
       </c>
       <c r="O12">
-        <v>0.157036147864814</v>
+        <v>0.1776728210929486</v>
       </c>
       <c r="P12">
-        <v>0.03548773578286963</v>
+        <v>0.03773184513541333</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,49 +974,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>125.7803703494156</v>
+        <v>80.60800791944469</v>
       </c>
       <c r="C13">
-        <v>126.7694214219903</v>
+        <v>81.07286233664594</v>
       </c>
       <c r="D13">
-        <v>50.15640344838705</v>
+        <v>31.52305300573502</v>
       </c>
       <c r="E13">
-        <v>37.51094721067663</v>
+        <v>23.60228803491332</v>
       </c>
       <c r="F13">
-        <v>16.25622230106322</v>
+        <v>10.11965581323488</v>
       </c>
       <c r="G13">
-        <v>2.278741045904906</v>
+        <v>1.616915764507135</v>
       </c>
       <c r="H13">
-        <v>42.90072079935668</v>
+        <v>27.99208682392761</v>
       </c>
       <c r="I13">
-        <v>25.95118588045835</v>
+        <v>16.26949509362201</v>
       </c>
       <c r="J13">
-        <v>9.772707937403858</v>
+        <v>6.110078467676405</v>
       </c>
       <c r="K13">
-        <v>62.23612394764364</v>
+        <v>40.16734822062</v>
       </c>
       <c r="L13">
-        <v>10.99843431377635</v>
+        <v>8.036848356707573</v>
       </c>
       <c r="M13">
-        <v>10.37485793587923</v>
+        <v>7.538163429802146</v>
       </c>
       <c r="N13">
-        <v>0.07316006223479922</v>
+        <v>0.0857708277489333</v>
       </c>
       <c r="O13">
-        <v>0.1485442853648269</v>
+        <v>0.174603605638202</v>
       </c>
       <c r="P13">
-        <v>0.03479085404203234</v>
+        <v>0.03752479106069614</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>128.3543249372287</v>
+        <v>81.91839122528884</v>
       </c>
       <c r="C14">
-        <v>129.3397986361759</v>
+        <v>82.38424701589427</v>
       </c>
       <c r="D14">
-        <v>51.16656930880323</v>
+        <v>32.02910295699318</v>
       </c>
       <c r="E14">
-        <v>38.26758989714759</v>
+        <v>23.98077210484981</v>
       </c>
       <c r="F14">
-        <v>16.58217907685339</v>
+        <v>10.28246183369387</v>
       </c>
       <c r="G14">
-        <v>2.324319783458504</v>
+        <v>1.642905200568562</v>
       </c>
       <c r="H14">
-        <v>43.77072771597227</v>
+        <v>28.4458625890638</v>
       </c>
       <c r="I14">
-        <v>26.47738436517389</v>
+        <v>16.53230566709693</v>
       </c>
       <c r="J14">
-        <v>9.971767101921603</v>
+        <v>6.208629253532653</v>
       </c>
       <c r="K14">
-        <v>63.50314011702459</v>
+        <v>40.81987671254196</v>
       </c>
       <c r="L14">
-        <v>11.17911197860457</v>
+        <v>8.157260307891203</v>
       </c>
       <c r="M14">
-        <v>10.54486448368931</v>
+        <v>7.651109741763616</v>
       </c>
       <c r="N14">
-        <v>0.0727624042613631</v>
+        <v>0.08563354214747441</v>
       </c>
       <c r="O14">
-        <v>0.147715263414499</v>
+        <v>0.1743147047832231</v>
       </c>
       <c r="P14">
-        <v>0.03472524373726962</v>
+        <v>0.03750542459733541</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>126.2566337987909</v>
+        <v>80.85149765576577</v>
       </c>
       <c r="C15">
-        <v>127.2450238105225</v>
+        <v>81.31654131550138</v>
       </c>
       <c r="D15">
-        <v>50.34332767291846</v>
+        <v>31.61708836581131</v>
       </c>
       <c r="E15">
-        <v>37.65095478725101</v>
+        <v>23.67261827770997</v>
       </c>
       <c r="F15">
-        <v>16.31653362292327</v>
+        <v>10.14990839566148</v>
       </c>
       <c r="G15">
-        <v>2.287174132994605</v>
+        <v>1.62174503033875</v>
       </c>
       <c r="H15">
-        <v>43.06167853561714</v>
+        <v>28.0764037430757</v>
       </c>
       <c r="I15">
-        <v>26.04853355612098</v>
+        <v>16.31832809829162</v>
       </c>
       <c r="J15">
-        <v>9.80953396889271</v>
+        <v>6.128390148234673</v>
       </c>
       <c r="K15">
-        <v>62.47053818461153</v>
+        <v>40.28859620953335</v>
       </c>
       <c r="L15">
-        <v>11.03199893392381</v>
+        <v>8.059246553008496</v>
       </c>
       <c r="M15">
-        <v>10.40644007846864</v>
+        <v>7.559172896391275</v>
       </c>
       <c r="N15">
-        <v>0.07308641918967768</v>
+        <v>0.08574533217776996</v>
       </c>
       <c r="O15">
-        <v>0.148390761170287</v>
+        <v>0.1745499525628116</v>
       </c>
       <c r="P15">
-        <v>0.03477866963449881</v>
+        <v>0.0375211927032571</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,49 +1124,49 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>126.1938802481746</v>
+        <v>80.67808110204064</v>
       </c>
       <c r="C16">
-        <v>127.1823573937005</v>
+        <v>81.14378473628008</v>
       </c>
       <c r="D16">
-        <v>50.31869841305651</v>
+        <v>31.46605896991238</v>
       </c>
       <c r="E16">
-        <v>37.63250719541057</v>
+        <v>23.52543186520874</v>
       </c>
       <c r="F16">
-        <v>16.30858684194411</v>
+        <v>10.14494179696681</v>
       </c>
       <c r="G16">
-        <v>2.286062959678092</v>
+        <v>1.620970060891138</v>
       </c>
       <c r="H16">
-        <v>43.04046984274567</v>
+        <v>28.06285631242597</v>
       </c>
       <c r="I16">
-        <v>26.03570640563103</v>
+        <v>16.31048599211239</v>
       </c>
       <c r="J16">
-        <v>9.804681529140156</v>
+        <v>6.125450115002681</v>
       </c>
       <c r="K16">
-        <v>62.43965062641047</v>
+        <v>40.2691089944886</v>
       </c>
       <c r="L16">
-        <v>11.02757982370774</v>
+        <v>8.056298371384942</v>
       </c>
       <c r="M16">
-        <v>10.40228197829373</v>
+        <v>7.556407506894423</v>
       </c>
       <c r="N16">
-        <v>0.07309612093224847</v>
+        <v>0.08575697127810041</v>
       </c>
       <c r="O16">
-        <v>0.1484109865573593</v>
+        <v>0.1745720622470576</v>
       </c>
       <c r="P16">
-        <v>0.03478027393732634</v>
+        <v>0.03752166644626424</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,49 +1174,49 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>125.9216411599574</v>
+        <v>80.68143593433769</v>
       </c>
       <c r="C17">
-        <v>126.9104961939765</v>
+        <v>81.14636280954136</v>
       </c>
       <c r="D17">
-        <v>50.21185006013415</v>
+        <v>31.41510197880083</v>
       </c>
       <c r="E17">
-        <v>37.55247693332019</v>
+        <v>23.48732593437101</v>
       </c>
       <c r="F17">
-        <v>16.2741119935759</v>
+        <v>10.12854044417206</v>
       </c>
       <c r="G17">
-        <v>2.281242475675505</v>
+        <v>1.618371682754855</v>
       </c>
       <c r="H17">
-        <v>42.94846361389583</v>
+        <v>28.14774893135723</v>
       </c>
       <c r="I17">
-        <v>25.98006072575053</v>
+        <v>16.41947780093379</v>
       </c>
       <c r="J17">
-        <v>9.78363110217359</v>
+        <v>6.25201638290066</v>
       </c>
       <c r="K17">
-        <v>62.30565553615959</v>
+        <v>40.33623562501536</v>
       </c>
       <c r="L17">
-        <v>11.00839665975793</v>
+        <v>8.043497773833677</v>
       </c>
       <c r="M17">
-        <v>10.38423185628522</v>
+        <v>7.544400569636678</v>
       </c>
       <c r="N17">
-        <v>0.07313821501015333</v>
+        <v>0.08576406237409401</v>
       </c>
       <c r="O17">
-        <v>0.1484987404639161</v>
+        <v>0.1745829261299135</v>
       </c>
       <c r="P17">
-        <v>0.03478723776981251</v>
+        <v>0.03752372299962558</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,49 +1224,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>100.8123195344324</v>
+        <v>67.06465147044833</v>
       </c>
       <c r="C18">
-        <v>101.8351453616133</v>
+        <v>67.51717012978706</v>
       </c>
       <c r="D18">
-        <v>40.34989229916844</v>
+        <v>26.20736332156123</v>
       </c>
       <c r="E18">
-        <v>30.1681789462482</v>
+        <v>19.59326421266885</v>
       </c>
       <c r="F18">
-        <v>13.09498056818943</v>
+        <v>8.45275482599056</v>
       </c>
       <c r="G18">
-        <v>1.836885423656911</v>
+        <v>1.350899214858077</v>
       </c>
       <c r="H18">
-        <v>34.47512181184733</v>
+        <v>23.34902972734003</v>
       </c>
       <c r="I18">
-        <v>20.85712845236694</v>
+        <v>13.58064049277383</v>
       </c>
       <c r="J18">
-        <v>7.845831199134909</v>
+        <v>5.101882158832546</v>
       </c>
       <c r="K18">
-        <v>49.96126891570505</v>
+        <v>33.49038536179766</v>
       </c>
       <c r="L18">
-        <v>9.155913927193811</v>
+        <v>6.787152906868259</v>
       </c>
       <c r="M18">
-        <v>8.641229661676244</v>
+        <v>6.365965748348648</v>
       </c>
       <c r="N18">
-        <v>0.07705914183546718</v>
+        <v>0.0871721729271718</v>
       </c>
       <c r="O18">
-        <v>0.1566703443375074</v>
+        <v>0.1775507998678224</v>
       </c>
       <c r="P18">
-        <v>0.03545683307810889</v>
+        <v>0.03772261695429875</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,49 +1274,49 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>62.08603520590786</v>
+        <v>44.32071680960195</v>
       </c>
       <c r="C19">
-        <v>63.15196911745126</v>
+        <v>44.72466541184462</v>
       </c>
       <c r="D19">
-        <v>25.11256606918142</v>
+        <v>17.25367570258175</v>
       </c>
       <c r="E19">
-        <v>18.76725235529868</v>
+        <v>12.89980473296446</v>
       </c>
       <c r="F19">
-        <v>8.192572616653823</v>
+        <v>5.572301777792199</v>
       </c>
       <c r="G19">
-        <v>1.152220707771201</v>
+        <v>0.8914536750028679</v>
       </c>
       <c r="H19">
-        <v>21.44684265760502</v>
+        <v>15.58825545382605</v>
       </c>
       <c r="I19">
-        <v>12.98628994363867</v>
+        <v>9.201743868917427</v>
       </c>
       <c r="J19">
-        <v>4.869354232600549</v>
+        <v>3.625811477395154</v>
       </c>
       <c r="K19">
-        <v>30.96816047135554</v>
+        <v>22.2254683837782</v>
       </c>
       <c r="L19">
-        <v>5.99457201244129</v>
+        <v>4.641637432096433</v>
       </c>
       <c r="M19">
-        <v>5.666971289069719</v>
+        <v>4.271244175260024</v>
       </c>
       <c r="N19">
-        <v>0.08323723453643586</v>
+        <v>0.08951055369462664</v>
       </c>
       <c r="O19">
-        <v>0.1695381240934363</v>
+        <v>0.1824679525147573</v>
       </c>
       <c r="P19">
-        <v>0.0365859564298059</v>
+        <v>0.03806010977546806</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,49 +1324,49 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>52.82207569549902</v>
+        <v>38.2547332824608</v>
       </c>
       <c r="C20">
-        <v>53.89382863985303</v>
+        <v>38.63804010711031</v>
       </c>
       <c r="D20">
-        <v>21.46180410665536</v>
+        <v>14.95104885594308</v>
       </c>
       <c r="E20">
-        <v>16.03697813706506</v>
+        <v>11.17878250642951</v>
       </c>
       <c r="F20">
-        <v>7.019355210734528</v>
+        <v>4.831433395391924</v>
       </c>
       <c r="G20">
-        <v>0.9884535713642914</v>
+        <v>0.7733093117366973</v>
       </c>
       <c r="H20">
-        <v>18.3350691529348</v>
+        <v>13.40375023714257</v>
       </c>
       <c r="I20">
-        <v>11.10725392124743</v>
+        <v>7.879314540056044</v>
       </c>
       <c r="J20">
-        <v>4.158955585098685</v>
+        <v>3.047276991752857</v>
       </c>
       <c r="K20">
-        <v>26.43019977222627</v>
+        <v>19.13844068759307</v>
       </c>
       <c r="L20">
-        <v>5.18723164942941</v>
+        <v>3.965957755955543</v>
       </c>
       <c r="M20">
-        <v>4.90744075404674</v>
+        <v>3.719718553804755</v>
       </c>
       <c r="N20">
-        <v>0.08473536143359239</v>
+        <v>0.09011164651712815</v>
       </c>
       <c r="O20">
-        <v>0.1726572579262691</v>
+        <v>0.1837383379067357</v>
       </c>
       <c r="P20">
-        <v>0.03687149038229733</v>
+        <v>0.03814786597706828</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,49 +1374,49 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>43.24097843605033</v>
+        <v>31.84259049696931</v>
       </c>
       <c r="C21">
-        <v>44.31429211757828</v>
+        <v>32.19484457887623</v>
       </c>
       <c r="D21">
-        <v>17.68255509738314</v>
+        <v>12.63798668563162</v>
       </c>
       <c r="E21">
-        <v>13.21110633139323</v>
+        <v>9.482858421133468</v>
       </c>
       <c r="F21">
-        <v>5.805231936728647</v>
+        <v>4.045307026503917</v>
       </c>
       <c r="G21">
-        <v>0.8190043963990818</v>
+        <v>0.6479597477254981</v>
       </c>
       <c r="H21">
-        <v>15.1171757379804</v>
+        <v>11.0963397584557</v>
       </c>
       <c r="I21">
-        <v>9.164431064173501</v>
+        <v>6.486572753782857</v>
       </c>
       <c r="J21">
-        <v>3.424573498575882</v>
+        <v>2.443623167309555</v>
       </c>
       <c r="K21">
-        <v>21.73739030193953</v>
+        <v>15.87520889250821</v>
       </c>
       <c r="L21">
-        <v>4.332401176369912</v>
+        <v>3.336129109926193</v>
       </c>
       <c r="M21">
-        <v>4.103232333299508</v>
+        <v>3.128890995687111</v>
       </c>
       <c r="N21">
-        <v>0.08629242489542271</v>
+        <v>0.09074269429976886</v>
       </c>
       <c r="O21">
-        <v>0.1758986955405676</v>
+        <v>0.1850739317477917</v>
       </c>
       <c r="P21">
-        <v>0.03717254605856249</v>
+        <v>0.03823874781593122</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,49 +1424,49 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.78341269568986</v>
+        <v>29.54231261904803</v>
       </c>
       <c r="C22">
-        <v>40.85552481286699</v>
+        <v>29.87913602223308</v>
       </c>
       <c r="D22">
-        <v>16.31753223987266</v>
+        <v>11.74152667644927</v>
       </c>
       <c r="E22">
-        <v>12.19055453406006</v>
+        <v>8.812891445030489</v>
       </c>
       <c r="F22">
-        <v>5.366769382981658</v>
+        <v>3.756709845274452</v>
       </c>
       <c r="G22">
-        <v>0.757816605231285</v>
+        <v>0.6019509328448837</v>
       </c>
       <c r="H22">
-        <v>13.95569253693103</v>
+        <v>10.29559648691304</v>
       </c>
       <c r="I22">
-        <v>8.463241239596133</v>
+        <v>6.022996947565258</v>
       </c>
       <c r="J22">
-        <v>3.159572545564175</v>
+        <v>2.270126715611724</v>
       </c>
       <c r="K22">
-        <v>20.04363045796334</v>
+        <v>14.72522403304744</v>
       </c>
       <c r="L22">
-        <v>4.018984000442119</v>
+        <v>3.103306115081186</v>
       </c>
       <c r="M22">
-        <v>3.808372008112102</v>
+        <v>2.910469760779005</v>
       </c>
       <c r="N22">
-        <v>0.08685629168999311</v>
+        <v>0.09097110625183182</v>
       </c>
       <c r="O22">
-        <v>0.1770724386329737</v>
+        <v>0.1855553699914458</v>
       </c>
       <c r="P22">
-        <v>0.03728259589794912</v>
+        <v>0.03827196843120092</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,49 +1474,49 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.62118448419089</v>
+        <v>28.63401793674601</v>
       </c>
       <c r="C23">
-        <v>39.69260240293828</v>
+        <v>28.96640607240098</v>
       </c>
       <c r="D23">
-        <v>15.85851139519815</v>
+        <v>11.30840358697489</v>
       </c>
       <c r="E23">
-        <v>11.84738469238473</v>
+        <v>8.456532772767819</v>
       </c>
       <c r="F23">
-        <v>5.219330437306264</v>
+        <v>3.658821947124386</v>
       </c>
       <c r="G23">
-        <v>0.7372420623347065</v>
+        <v>0.5947295648063452</v>
       </c>
       <c r="H23">
-        <v>13.5652041344425</v>
+        <v>10.0241497851577</v>
       </c>
       <c r="I23">
-        <v>8.227508961609342</v>
+        <v>5.865850324521959</v>
       </c>
       <c r="J23">
-        <v>3.070489454165687</v>
+        <v>2.21132783330964</v>
       </c>
       <c r="K23">
-        <v>19.47421501052511</v>
+        <v>14.33547319363302</v>
       </c>
       <c r="L23">
-        <v>3.913041679322626</v>
+        <v>3.024378050697881</v>
       </c>
       <c r="M23">
-        <v>3.708701536904833</v>
+        <v>2.8364213516064</v>
       </c>
       <c r="N23">
-        <v>0.08704607624147581</v>
+        <v>0.09105504081169433</v>
       </c>
       <c r="O23">
-        <v>0.177467482785274</v>
+        <v>0.1857300616586204</v>
       </c>
       <c r="P23">
-        <v>0.03731975521096448</v>
+        <v>0.03828318450595204</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,49 +1524,49 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.7682537448245</v>
+        <v>26.71891597618825</v>
       </c>
       <c r="C24">
-        <v>36.83721436940296</v>
+        <v>27.03553621851659</v>
       </c>
       <c r="D24">
-        <v>14.73129642870751</v>
+        <v>10.56068766028661</v>
       </c>
       <c r="E24">
-        <v>11.00469573481942</v>
+        <v>7.897800951941986</v>
       </c>
       <c r="F24">
-        <v>4.857269265925719</v>
+        <v>3.417948011150552</v>
       </c>
       <c r="G24">
-        <v>0.6867191538073547</v>
+        <v>0.5802556486120108</v>
       </c>
       <c r="H24">
-        <v>12.60646236282591</v>
+        <v>9.356114868177764</v>
       </c>
       <c r="I24">
-        <v>7.648742199139217</v>
+        <v>5.479095776179522</v>
       </c>
       <c r="J24">
-        <v>2.851792224991091</v>
+        <v>2.066648869366575</v>
       </c>
       <c r="K24">
-        <v>18.07623563325672</v>
+        <v>13.37653219044906</v>
       </c>
       <c r="L24">
-        <v>3.651715577020292</v>
+        <v>2.82919679559748</v>
       </c>
       <c r="M24">
-        <v>3.462843733785311</v>
+        <v>2.653300149450597</v>
       </c>
       <c r="N24">
-        <v>0.08751249204377429</v>
+        <v>0.09124486415849289</v>
       </c>
       <c r="O24">
-        <v>0.1784383235830574</v>
+        <v>0.1861302158992639</v>
       </c>
       <c r="P24">
-        <v>0.03741132881747311</v>
+        <v>0.03831082113063837</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,49 +1574,49 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>34.49767330601229</v>
+        <v>25.86254246851685</v>
       </c>
       <c r="C25">
-        <v>35.56514044349392</v>
+        <v>26.17131971635048</v>
       </c>
       <c r="D25">
-        <v>14.2290460900916</v>
+        <v>10.22593081373754</v>
       </c>
       <c r="E25">
-        <v>10.62923541112137</v>
+        <v>7.647660788950149</v>
       </c>
       <c r="F25">
-        <v>4.695946190048286</v>
+        <v>3.310076919096572</v>
       </c>
       <c r="G25">
-        <v>0.6642083143688614</v>
+        <v>0.5745188457202921</v>
       </c>
       <c r="H25">
-        <v>12.17935677140289</v>
+        <v>9.057021589422702</v>
       </c>
       <c r="I25">
-        <v>7.390914810329209</v>
+        <v>5.305934851960234</v>
       </c>
       <c r="J25">
-        <v>2.754377148950092</v>
+        <v>2.001889655996248</v>
       </c>
       <c r="K25">
-        <v>17.45349685535815</v>
+        <v>12.94731772428917</v>
       </c>
       <c r="L25">
-        <v>3.534746367271572</v>
+        <v>2.741608648951244</v>
       </c>
       <c r="M25">
-        <v>3.352796767034769</v>
+        <v>2.571120341335368</v>
       </c>
       <c r="N25">
-        <v>0.08772047755059345</v>
+        <v>0.09132970266799466</v>
       </c>
       <c r="O25">
-        <v>0.1788712337481858</v>
+        <v>0.1863090683609914</v>
       </c>
       <c r="P25">
-        <v>0.03745227712332452</v>
+        <v>0.03832317708639062</v>
       </c>
     </row>
   </sheetData>
